--- a/students.2.xlsx
+++ b/students.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\homework.division\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1852509B-204F-475D-8C40-5894375467D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A57FC6-9314-4430-A211-1D74D878665C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-192" yWindow="1356" windowWidth="11880" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -42,22 +42,19 @@
     <t>Score3</t>
   </si>
   <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Carol</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>__</t>
-  </si>
-  <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
 </sst>
 </file>
@@ -408,7 +405,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -444,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -452,16 +449,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
         <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -469,16 +466,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
